--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7110"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1419,9 +1419,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1488,6 +1488,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1495,16 +1503,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,8 +1531,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1533,70 +1556,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1616,8 +1578,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1631,7 +1631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1640,19 +1640,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,7 +1658,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,7 +1688,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,7 +1724,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,13 +1778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,55 +1790,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,42 +1830,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1831,6 +1837,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1845,24 +1860,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1882,17 +1879,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1912,11 +1903,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1934,155 +1940,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2093,12 +2099,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2110,12 +2119,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -2422,7 +2431,7 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2466,7 +2475,7 @@
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2477,7 +2486,7 @@
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2488,8 +2497,8 @@
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="21" spans="1:3">
@@ -2856,20 +2865,20 @@
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
-      <c r="B42" s="8"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -2880,7 +2889,7 @@
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -2891,7 +2900,7 @@
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -2902,7 +2911,7 @@
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -2913,7 +2922,7 @@
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -2924,7 +2933,7 @@
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -2935,7 +2944,7 @@
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -2946,7 +2955,7 @@
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -2957,7 +2966,7 @@
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -2968,7 +2977,7 @@
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -2980,7 +2989,7 @@
     </row>
     <row r="55" ht="21" spans="1:3">
       <c r="A55" s="6"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="5"/>
     </row>
     <row r="56" ht="21" spans="1:3">
@@ -2990,8 +2999,8 @@
       <c r="B56" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>5</v>
+      <c r="C56" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
@@ -3020,7 +3029,7 @@
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -3457,8 +3466,8 @@
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
-      <c r="A100" s="9"/>
-      <c r="B100" s="8"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="5"/>
     </row>
     <row r="101" ht="21" spans="1:3">
@@ -3858,11 +3867,11 @@
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
-      <c r="B138" s="8"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="5"/>
     </row>
     <row r="139" ht="21" spans="1:3">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B139" s="7" t="s">
@@ -3873,7 +3882,7 @@
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B140" s="7" t="s">
@@ -3884,7 +3893,7 @@
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B141" s="7" t="s">
@@ -3895,7 +3904,7 @@
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B142" s="7" t="s">
@@ -3906,7 +3915,7 @@
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B143" s="7" t="s">
@@ -3917,7 +3926,7 @@
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B144" s="7" t="s">
@@ -3928,7 +3937,7 @@
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B145" s="7" t="s">
@@ -3939,7 +3948,7 @@
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B146" s="7" t="s">
@@ -3950,7 +3959,7 @@
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B147" s="7" t="s">
@@ -3961,7 +3970,7 @@
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B148" s="7" t="s">
@@ -3972,7 +3981,7 @@
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B149" s="7" t="s">
@@ -3983,7 +3992,7 @@
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B150" s="7" t="s">
@@ -3994,7 +4003,7 @@
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B151" s="7" t="s">
@@ -4005,7 +4014,7 @@
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B152" s="7" t="s">
@@ -4016,7 +4025,7 @@
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B153" s="7" t="s">
@@ -4027,7 +4036,7 @@
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B154" s="7" t="s">
@@ -4038,7 +4047,7 @@
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
-      <c r="A155" s="9" t="s">
+      <c r="A155" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B155" s="7" t="s">
@@ -4049,7 +4058,7 @@
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B156" s="7" t="s">
@@ -4060,7 +4069,7 @@
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
-      <c r="A157" s="9" t="s">
+      <c r="A157" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B157" s="7" t="s">
@@ -4071,7 +4080,7 @@
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B158" s="7" t="s">
@@ -4082,7 +4091,7 @@
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B159" s="7" t="s">
@@ -4093,7 +4102,7 @@
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="9" t="s">
+      <c r="A160" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B160" s="7" t="s">
@@ -4104,7 +4113,7 @@
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B161" s="7" t="s">
@@ -4115,7 +4124,7 @@
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B162" s="7" t="s">
@@ -4126,7 +4135,7 @@
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B163" s="7" t="s">
@@ -4137,21 +4146,21 @@
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>5</v>
+      <c r="C164" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
@@ -4159,7 +4168,7 @@
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B166" s="7" t="s">
@@ -4170,7 +4179,7 @@
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
-      <c r="A167" s="9" t="s">
+      <c r="A167" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B167" s="7" t="s">
@@ -4181,7 +4190,7 @@
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="9" t="s">
+      <c r="A168" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B168" s="7" t="s">
@@ -4192,7 +4201,7 @@
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B169" s="7" t="s">
@@ -4203,7 +4212,7 @@
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B170" s="7" t="s">
@@ -4214,7 +4223,7 @@
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B171" s="7" t="s">
@@ -4225,7 +4234,7 @@
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B172" s="7" t="s">
@@ -4236,7 +4245,7 @@
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B173" s="7" t="s">
@@ -4247,7 +4256,7 @@
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B174" s="7" t="s">
@@ -4258,7 +4267,7 @@
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
-      <c r="B176" s="8"/>
+      <c r="B176" s="9"/>
       <c r="C176" s="5"/>
     </row>
     <row r="177" ht="21" spans="1:3">
@@ -4647,13 +4656,13 @@
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
-      <c r="A212" s="9"/>
-      <c r="B212" s="8"/>
+      <c r="A212" s="10"/>
+      <c r="B212" s="9"/>
       <c r="C212" s="5"/>
     </row>
     <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="9"/>
-      <c r="B213" s="8"/>
+      <c r="A213" s="10"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="5"/>
     </row>
     <row r="214" ht="21" spans="1:3">
@@ -4726,7 +4735,7 @@
       <c r="A220" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="11" t="s">
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -4899,11 +4908,11 @@
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
-      <c r="B236" s="8"/>
+      <c r="B236" s="9"/>
       <c r="C236" s="5"/>
     </row>
     <row r="237" ht="21" spans="2:3">
-      <c r="B237" s="8"/>
+      <c r="B237" s="9"/>
       <c r="C237" s="5"/>
     </row>
     <row r="238" ht="21" spans="1:3">
@@ -5292,11 +5301,11 @@
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
-      <c r="B273" s="8"/>
+      <c r="B273" s="9"/>
       <c r="C273" s="5"/>
     </row>
     <row r="274" ht="21" spans="2:3">
-      <c r="B274" s="8"/>
+      <c r="B274" s="9"/>
       <c r="C274" s="5"/>
     </row>
     <row r="275" ht="21" spans="1:3">
@@ -5509,11 +5518,11 @@
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
-      <c r="B294" s="8"/>
+      <c r="B294" s="9"/>
       <c r="C294" s="5"/>
     </row>
     <row r="295" ht="21" spans="2:3">
-      <c r="B295" s="8"/>
+      <c r="B295" s="9"/>
       <c r="C295" s="5"/>
     </row>
     <row r="296" ht="21" spans="1:3">
@@ -5663,7 +5672,7 @@
       <c r="A309" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
@@ -5935,15 +5944,15 @@
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
-      <c r="B334" s="8"/>
+      <c r="B334" s="9"/>
       <c r="C334" s="5"/>
     </row>
     <row r="335" ht="21" spans="2:3">
-      <c r="B335" s="8"/>
+      <c r="B335" s="9"/>
       <c r="C335" s="5"/>
     </row>
     <row r="336" ht="21" spans="1:3">
-      <c r="A336" s="9" t="s">
+      <c r="A336" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B336" s="7" t="s">
@@ -5954,7 +5963,7 @@
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
-      <c r="A337" s="9" t="s">
+      <c r="A337" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B337" s="7" t="s">
@@ -5965,7 +5974,7 @@
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
-      <c r="A338" s="9" t="s">
+      <c r="A338" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B338" s="7" t="s">
@@ -5976,7 +5985,7 @@
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
-      <c r="A339" s="9" t="s">
+      <c r="A339" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B339" s="7" t="s">
@@ -5987,7 +5996,7 @@
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
-      <c r="A340" s="9" t="s">
+      <c r="A340" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B340" s="7" t="s">
@@ -5998,7 +6007,7 @@
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
-      <c r="A341" s="9" t="s">
+      <c r="A341" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B341" s="7" t="s">
@@ -6009,7 +6018,7 @@
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
-      <c r="A342" s="9" t="s">
+      <c r="A342" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B342" s="7" t="s">
@@ -6020,7 +6029,7 @@
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
-      <c r="A343" s="9" t="s">
+      <c r="A343" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B343" s="7" t="s">
@@ -6031,10 +6040,10 @@
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
-      <c r="A344" s="9" t="s">
+      <c r="A344" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="11" t="s">
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
@@ -6042,7 +6051,7 @@
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
-      <c r="A345" s="9" t="s">
+      <c r="A345" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B345" s="7" t="s">
@@ -6053,7 +6062,7 @@
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
-      <c r="A346" s="9" t="s">
+      <c r="A346" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B346" s="7" t="s">
@@ -6064,7 +6073,7 @@
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
-      <c r="A347" s="9" t="s">
+      <c r="A347" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B347" s="7" t="s">
@@ -6075,7 +6084,7 @@
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
-      <c r="A348" s="9" t="s">
+      <c r="A348" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B348" s="7" t="s">
@@ -6086,7 +6095,7 @@
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
-      <c r="A349" s="9" t="s">
+      <c r="A349" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B349" s="7" t="s">
@@ -6097,7 +6106,7 @@
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
-      <c r="A350" s="9" t="s">
+      <c r="A350" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B350" s="7" t="s">
@@ -6108,7 +6117,7 @@
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
-      <c r="A351" s="9" t="s">
+      <c r="A351" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B351" s="7" t="s">
@@ -6119,7 +6128,7 @@
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
-      <c r="A352" s="9" t="s">
+      <c r="A352" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B352" s="7" t="s">
@@ -6130,7 +6139,7 @@
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
-      <c r="A353" s="9" t="s">
+      <c r="A353" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B353" s="7" t="s">
@@ -6141,15 +6150,15 @@
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
-      <c r="B354" s="8"/>
+      <c r="B354" s="9"/>
       <c r="C354" s="5"/>
     </row>
     <row r="355" ht="21" spans="2:3">
-      <c r="B355" s="8"/>
+      <c r="B355" s="9"/>
       <c r="C355" s="5"/>
     </row>
     <row r="356" ht="21" spans="1:3">
-      <c r="A356" s="9" t="s">
+      <c r="A356" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B356" s="7" t="s">
@@ -6160,7 +6169,7 @@
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
-      <c r="A357" s="9" t="s">
+      <c r="A357" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B357" s="7" t="s">
@@ -6171,7 +6180,7 @@
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
-      <c r="A358" s="9" t="s">
+      <c r="A358" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B358" s="7" t="s">
@@ -6182,7 +6191,7 @@
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
-      <c r="A359" s="9" t="s">
+      <c r="A359" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B359" s="7" t="s">
@@ -6193,7 +6202,7 @@
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
-      <c r="A360" s="9" t="s">
+      <c r="A360" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B360" s="7" t="s">
@@ -6204,7 +6213,7 @@
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
-      <c r="A361" s="9" t="s">
+      <c r="A361" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B361" s="7" t="s">
@@ -6215,7 +6224,7 @@
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
-      <c r="A362" s="9" t="s">
+      <c r="A362" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B362" s="7" t="s">
@@ -6226,7 +6235,7 @@
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
-      <c r="A363" s="9" t="s">
+      <c r="A363" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B363" s="7" t="s">
@@ -6237,7 +6246,7 @@
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
-      <c r="A364" s="9" t="s">
+      <c r="A364" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B364" s="7" t="s">
@@ -6248,7 +6257,7 @@
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
-      <c r="A365" s="9" t="s">
+      <c r="A365" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B365" s="7" t="s">
@@ -6259,7 +6268,7 @@
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
-      <c r="A366" s="9" t="s">
+      <c r="A366" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B366" s="7" t="s">
@@ -6270,7 +6279,7 @@
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
-      <c r="A367" s="9" t="s">
+      <c r="A367" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B367" s="7" t="s">
@@ -6281,7 +6290,7 @@
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
-      <c r="A368" s="9" t="s">
+      <c r="A368" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B368" s="7" t="s">
@@ -6292,7 +6301,7 @@
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
-      <c r="A369" s="9" t="s">
+      <c r="A369" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B369" s="7" t="s">
@@ -6303,7 +6312,7 @@
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
-      <c r="A370" s="9" t="s">
+      <c r="A370" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B370" s="7" t="s">
@@ -6314,7 +6323,7 @@
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
-      <c r="A371" s="9" t="s">
+      <c r="A371" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B371" s="7" t="s">
@@ -6325,7 +6334,7 @@
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
-      <c r="A372" s="9" t="s">
+      <c r="A372" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B372" s="7" t="s">
@@ -6336,7 +6345,7 @@
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
-      <c r="A373" s="9" t="s">
+      <c r="A373" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B373" s="7" t="s">
@@ -6347,7 +6356,7 @@
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
-      <c r="A374" s="9" t="s">
+      <c r="A374" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B374" s="7" t="s">
@@ -6358,7 +6367,7 @@
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
-      <c r="A375" s="9" t="s">
+      <c r="A375" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B375" s="7" t="s">
@@ -6369,7 +6378,7 @@
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
-      <c r="A376" s="9" t="s">
+      <c r="A376" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B376" s="7" t="s">
@@ -6380,7 +6389,7 @@
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
-      <c r="A377" s="9" t="s">
+      <c r="A377" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B377" s="7" t="s">
@@ -6391,7 +6400,7 @@
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
-      <c r="A378" s="9" t="s">
+      <c r="A378" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B378" s="7" t="s">
@@ -6402,7 +6411,7 @@
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
-      <c r="A379" s="9" t="s">
+      <c r="A379" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B379" s="7" t="s">
@@ -6413,7 +6422,7 @@
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
-      <c r="A380" s="9" t="s">
+      <c r="A380" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B380" s="7" t="s">
@@ -6424,7 +6433,7 @@
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
-      <c r="A381" s="9" t="s">
+      <c r="A381" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B381" s="7" t="s">
@@ -6435,7 +6444,7 @@
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
-      <c r="A382" s="9" t="s">
+      <c r="A382" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B382" s="7" t="s">
@@ -6446,7 +6455,7 @@
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
-      <c r="A383" s="9" t="s">
+      <c r="A383" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B383" s="7" t="s">
@@ -6457,7 +6466,7 @@
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
-      <c r="A384" s="9" t="s">
+      <c r="A384" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B384" s="7" t="s">
@@ -6468,7 +6477,7 @@
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
-      <c r="A385" s="9" t="s">
+      <c r="A385" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B385" s="7" t="s">
@@ -6479,7 +6488,7 @@
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
-      <c r="A386" s="9" t="s">
+      <c r="A386" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B386" s="7" t="s">
@@ -6490,7 +6499,7 @@
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
-      <c r="A387" s="9" t="s">
+      <c r="A387" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B387" s="7" t="s">
@@ -6501,7 +6510,7 @@
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
-      <c r="A388" s="9" t="s">
+      <c r="A388" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B388" s="7" t="s">
@@ -6512,7 +6521,7 @@
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
-      <c r="A389" s="9" t="s">
+      <c r="A389" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B389" s="7" t="s">
@@ -6523,7 +6532,7 @@
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
-      <c r="A390" s="9" t="s">
+      <c r="A390" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B390" s="7" t="s">
@@ -6534,7 +6543,7 @@
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
-      <c r="A391" s="9" t="s">
+      <c r="A391" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B391" s="7" t="s">
@@ -6545,7 +6554,7 @@
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
-      <c r="A392" s="9" t="s">
+      <c r="A392" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B392" s="7" t="s">
@@ -6556,7 +6565,7 @@
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
-      <c r="A393" s="9" t="s">
+      <c r="A393" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B393" s="7" t="s">
@@ -6567,7 +6576,7 @@
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
-      <c r="A394" s="9" t="s">
+      <c r="A394" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B394" s="7" t="s">
@@ -6578,7 +6587,7 @@
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
-      <c r="A395" s="9" t="s">
+      <c r="A395" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B395" s="7" t="s">
@@ -6589,7 +6598,7 @@
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
-      <c r="A396" s="9" t="s">
+      <c r="A396" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B396" s="7" t="s">
@@ -6600,7 +6609,7 @@
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
-      <c r="A397" s="9" t="s">
+      <c r="A397" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B397" s="7" t="s">
@@ -6611,7 +6620,7 @@
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
-      <c r="A398" s="9" t="s">
+      <c r="A398" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B398" s="7" t="s">
@@ -6622,7 +6631,7 @@
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
-      <c r="A399" s="9" t="s">
+      <c r="A399" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B399" s="7" t="s">
@@ -6633,15 +6642,15 @@
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
-      <c r="B400" s="8"/>
+      <c r="B400" s="9"/>
       <c r="C400" s="5"/>
     </row>
     <row r="401" ht="21" spans="2:3">
-      <c r="B401" s="8"/>
+      <c r="B401" s="9"/>
       <c r="C401" s="5"/>
     </row>
     <row r="402" ht="21" spans="1:3">
-      <c r="A402" s="9" t="s">
+      <c r="A402" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B402" s="7" t="s">
@@ -6652,7 +6661,7 @@
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
-      <c r="A403" s="9" t="s">
+      <c r="A403" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B403" s="7" t="s">
@@ -6663,7 +6672,7 @@
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
-      <c r="A404" s="9" t="s">
+      <c r="A404" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B404" s="7" t="s">
@@ -6674,7 +6683,7 @@
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
-      <c r="A405" s="9" t="s">
+      <c r="A405" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B405" s="7" t="s">
@@ -6685,7 +6694,7 @@
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
-      <c r="A406" s="9" t="s">
+      <c r="A406" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B406" s="7" t="s">
@@ -6696,7 +6705,7 @@
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
-      <c r="A407" s="9" t="s">
+      <c r="A407" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B407" s="7" t="s">
@@ -6707,11 +6716,11 @@
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
-      <c r="B408" s="8"/>
+      <c r="B408" s="9"/>
       <c r="C408" s="5"/>
     </row>
     <row r="409" ht="21" spans="2:3">
-      <c r="B409" s="8"/>
+      <c r="B409" s="9"/>
       <c r="C409" s="5"/>
     </row>
     <row r="410" ht="21" spans="1:3">
@@ -7375,12 +7384,12 @@
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
-      <c r="B470" s="8"/>
+      <c r="B470" s="9"/>
       <c r="C470" s="5"/>
     </row>
     <row r="471" ht="21" spans="1:3">
-      <c r="A471" s="9"/>
-      <c r="B471" s="8"/>
+      <c r="A471" s="10"/>
+      <c r="B471" s="9"/>
       <c r="C471" s="5"/>
     </row>
     <row r="472" ht="21" spans="1:3">
